--- a/docs/StructureDefinition-CareConnect-RespiratoryRate-Observation-1.xlsx
+++ b/docs/StructureDefinition-CareConnect-RespiratoryRate-Observation-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6627" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6627" uniqueCount="662">
   <si>
     <t>Path</t>
   </si>
@@ -665,6 +665,9 @@
   </si>
   <si>
     <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -1346,6 +1349,9 @@
     <t>This value set defines the set of codes for identifying the reason why the expected result in Observation.value[x] is missing.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-valueabsentreason</t>
+  </si>
+  <si>
     <t xml:space="preserve">obs-6
 </t>
   </si>
@@ -1403,6 +1409,9 @@
   </si>
   <si>
     <t>This value set defines the set of codes that can be used to indicate the meaning/use of a reference range.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -2011,9 +2020,6 @@
     <t>Codes specifying why the result (Observation.value[x]) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-valueabsentreason</t>
-  </si>
-  <si>
     <t>Observation.component.dataAbsentReason.id</t>
   </si>
   <si>
@@ -2054,9 +2060,6 @@
   </si>
   <si>
     <t>Codes identifying interpretations of observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
   </si>
   <si>
     <t>Observation.component.referenceRange</t>
@@ -4794,7 +4797,7 @@
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>45</v>
@@ -4836,10 +4839,10 @@
         <v>45</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4847,7 +4850,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4962,7 +4965,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5079,7 +5082,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5102,19 +5105,19 @@
         <v>57</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -5163,7 +5166,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -5184,10 +5187,10 @@
         <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
@@ -5198,7 +5201,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5313,7 +5316,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5430,7 +5433,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5456,23 +5459,23 @@
         <v>69</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>45</v>
@@ -5514,7 +5517,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -5535,10 +5538,10 @@
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -5549,7 +5552,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5575,13 +5578,13 @@
         <v>120</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5631,7 +5634,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -5652,10 +5655,10 @@
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
@@ -5666,7 +5669,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5692,21 +5695,21 @@
         <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>45</v>
@@ -5748,7 +5751,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5769,10 +5772,10 @@
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
@@ -5783,7 +5786,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5809,21 +5812,21 @@
         <v>120</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>45</v>
@@ -5865,7 +5868,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5886,10 +5889,10 @@
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
@@ -5900,7 +5903,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5923,19 +5926,19 @@
         <v>57</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5984,7 +5987,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -6005,10 +6008,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -6019,7 +6022,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6045,16 +6048,16 @@
         <v>120</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -6103,7 +6106,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -6124,10 +6127,10 @@
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -6138,11 +6141,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -6164,14 +6167,14 @@
         <v>142</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -6199,10 +6202,10 @@
         <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
@@ -6220,7 +6223,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>56</v>
@@ -6235,27 +6238,27 @@
         <v>45</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6370,7 +6373,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6487,7 +6490,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6510,19 +6513,19 @@
         <v>57</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -6559,7 +6562,7 @@
         <v>45</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AB37" s="2"/>
       <c r="AC37" t="s" s="2">
@@ -6569,7 +6572,7 @@
         <v>129</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6590,10 +6593,10 @@
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -6604,10 +6607,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>45</v>
@@ -6629,19 +6632,19 @@
         <v>57</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -6669,10 +6672,10 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -6690,7 +6693,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6711,10 +6714,10 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6725,7 +6728,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6840,7 +6843,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6957,7 +6960,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6983,23 +6986,23 @@
         <v>69</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="R41" t="s" s="2">
         <v>45</v>
@@ -7041,7 +7044,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -7062,10 +7065,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -7076,7 +7079,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7102,13 +7105,13 @@
         <v>120</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7158,7 +7161,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -7179,10 +7182,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -7193,7 +7196,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7219,21 +7222,21 @@
         <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>45</v>
@@ -7275,7 +7278,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -7296,10 +7299,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -7310,7 +7313,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7336,14 +7339,14 @@
         <v>120</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -7392,7 +7395,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -7413,10 +7416,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -7427,7 +7430,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7450,19 +7453,19 @@
         <v>57</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -7511,7 +7514,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -7532,10 +7535,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -7546,10 +7549,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>45</v>
@@ -7571,19 +7574,19 @@
         <v>57</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -7632,7 +7635,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7653,10 +7656,10 @@
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7667,7 +7670,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7782,7 +7785,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7808,10 +7811,10 @@
         <v>102</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7897,10 +7900,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>45</v>
@@ -7922,13 +7925,13 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -8014,7 +8017,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8040,23 +8043,23 @@
         <v>69</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>45</v>
@@ -8098,7 +8101,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -8119,10 +8122,10 @@
         <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -8133,7 +8136,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8159,13 +8162,13 @@
         <v>120</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8215,7 +8218,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -8236,10 +8239,10 @@
         <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -8250,7 +8253,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8276,21 +8279,21 @@
         <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>45</v>
@@ -8332,7 +8335,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -8353,10 +8356,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -8367,7 +8370,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8393,21 +8396,21 @@
         <v>120</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>45</v>
@@ -8449,7 +8452,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -8470,10 +8473,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -8484,7 +8487,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8507,19 +8510,19 @@
         <v>57</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -8568,7 +8571,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8589,10 +8592,10 @@
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8603,7 +8606,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8629,16 +8632,16 @@
         <v>120</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
@@ -8687,7 +8690,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8708,10 +8711,10 @@
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8722,7 +8725,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8745,19 +8748,19 @@
         <v>57</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8806,7 +8809,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8821,19 +8824,19 @@
         <v>45</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>45</v>
@@ -8841,11 +8844,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8864,19 +8867,19 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
@@ -8925,7 +8928,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8940,19 +8943,19 @@
         <v>45</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>45</v>
@@ -8960,11 +8963,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8983,19 +8986,19 @@
         <v>57</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -9044,7 +9047,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -9059,19 +9062,19 @@
         <v>45</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>45</v>
@@ -9079,7 +9082,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9102,16 +9105,16 @@
         <v>57</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9161,7 +9164,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -9182,13 +9185,13 @@
         <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>45</v>
@@ -9196,7 +9199,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9219,17 +9222,17 @@
         <v>57</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -9278,7 +9281,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -9293,19 +9296,19 @@
         <v>45</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>45</v>
@@ -9313,7 +9316,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9336,19 +9339,19 @@
         <v>57</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -9385,17 +9388,17 @@
         <v>45</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AB61" s="2"/>
       <c r="AC61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -9404,36 +9407,36 @@
         <v>56</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>45</v>
@@ -9455,19 +9458,19 @@
         <v>57</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -9495,10 +9498,10 @@
         <v>136</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
@@ -9516,7 +9519,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -9525,33 +9528,33 @@
         <v>56</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9666,7 +9669,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9783,7 +9786,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9806,19 +9809,19 @@
         <v>57</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>45</v>
@@ -9867,7 +9870,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9888,10 +9891,10 @@
         <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9902,7 +9905,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9928,22 +9931,22 @@
         <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P66" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q66" t="s" s="2">
         <v>45</v>
@@ -9967,10 +9970,10 @@
         <v>136</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>45</v>
@@ -9988,7 +9991,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -10009,10 +10012,10 @@
         <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -10023,7 +10026,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10049,14 +10052,14 @@
         <v>120</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -10105,7 +10108,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -10126,10 +10129,10 @@
         <v>45</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -10140,7 +10143,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10166,21 +10169,21 @@
         <v>69</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>45</v>
@@ -10222,7 +10225,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -10231,7 +10234,7 @@
         <v>56</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>45</v>
@@ -10243,10 +10246,10 @@
         <v>45</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -10257,7 +10260,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10283,23 +10286,23 @@
         <v>75</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="R69" t="s" s="2">
         <v>45</v>
@@ -10341,7 +10344,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -10362,10 +10365,10 @@
         <v>45</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
@@ -10376,7 +10379,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10402,16 +10405,16 @@
         <v>142</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
@@ -10439,10 +10442,10 @@
         <v>79</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>45</v>
+        <v>429</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>45</v>
@@ -10460,7 +10463,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -10469,13 +10472,13 @@
         <v>56</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>45</v>
@@ -10484,7 +10487,7 @@
         <v>99</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
@@ -10495,7 +10498,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10610,7 +10613,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10727,7 +10730,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10750,19 +10753,19 @@
         <v>57</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>45</v>
@@ -10811,7 +10814,7 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10832,10 +10835,10 @@
         <v>45</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>45</v>
@@ -10846,7 +10849,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10961,7 +10964,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11078,7 +11081,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11104,16 +11107,16 @@
         <v>69</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>45</v>
@@ -11162,7 +11165,7 @@
         <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
@@ -11183,10 +11186,10 @@
         <v>45</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>45</v>
@@ -11197,7 +11200,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11223,13 +11226,13 @@
         <v>120</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11279,7 +11282,7 @@
         <v>45</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
@@ -11300,10 +11303,10 @@
         <v>45</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>45</v>
@@ -11314,7 +11317,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11340,14 +11343,14 @@
         <v>75</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>45</v>
@@ -11396,7 +11399,7 @@
         <v>45</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
@@ -11417,10 +11420,10 @@
         <v>45</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>45</v>
@@ -11431,7 +11434,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11457,14 +11460,14 @@
         <v>120</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>45</v>
@@ -11513,7 +11516,7 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
@@ -11534,10 +11537,10 @@
         <v>45</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>45</v>
@@ -11548,7 +11551,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11571,19 +11574,19 @@
         <v>57</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>45</v>
@@ -11632,7 +11635,7 @@
         <v>45</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
@@ -11653,10 +11656,10 @@
         <v>45</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>45</v>
@@ -11667,7 +11670,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11693,16 +11696,16 @@
         <v>120</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>45</v>
@@ -11751,7 +11754,7 @@
         <v>45</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>43</v>
@@ -11772,10 +11775,10 @@
         <v>45</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>45</v>
@@ -11786,11 +11789,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11812,14 +11815,14 @@
         <v>142</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>45</v>
@@ -11847,10 +11850,10 @@
         <v>79</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>45</v>
+        <v>449</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>45</v>
@@ -11868,7 +11871,7 @@
         <v>45</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>43</v>
@@ -11886,24 +11889,24 @@
         <v>45</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11929,14 +11932,14 @@
         <v>120</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>45</v>
@@ -11985,7 +11988,7 @@
         <v>45</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
@@ -12000,16 +12003,16 @@
         <v>45</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>45</v>
@@ -12020,7 +12023,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12046,13 +12049,13 @@
         <v>142</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -12078,13 +12081,13 @@
         <v>45</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>45</v>
@@ -12102,7 +12105,7 @@
         <v>45</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
@@ -12120,24 +12123,24 @@
         <v>45</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12252,7 +12255,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12369,7 +12372,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12392,19 +12395,19 @@
         <v>57</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>45</v>
@@ -12441,7 +12444,7 @@
         <v>45</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="AB87" s="2"/>
       <c r="AC87" t="s" s="2">
@@ -12451,7 +12454,7 @@
         <v>129</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>43</v>
@@ -12472,10 +12475,10 @@
         <v>45</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>45</v>
@@ -12486,10 +12489,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C88" t="s" s="2">
         <v>45</v>
@@ -12511,19 +12514,19 @@
         <v>57</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>45</v>
@@ -12548,13 +12551,13 @@
         <v>45</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>45</v>
@@ -12572,7 +12575,7 @@
         <v>45</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>43</v>
@@ -12593,10 +12596,10 @@
         <v>45</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>45</v>
@@ -12607,7 +12610,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12722,7 +12725,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12748,10 +12751,10 @@
         <v>102</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12837,10 +12840,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>45</v>
@@ -12862,13 +12865,13 @@
         <v>45</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12954,7 +12957,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12980,23 +12983,23 @@
         <v>69</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="R92" t="s" s="2">
         <v>45</v>
@@ -13038,7 +13041,7 @@
         <v>45</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>43</v>
@@ -13059,10 +13062,10 @@
         <v>45</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>45</v>
@@ -13073,7 +13076,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13099,13 +13102,13 @@
         <v>120</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -13155,7 +13158,7 @@
         <v>45</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>43</v>
@@ -13176,10 +13179,10 @@
         <v>45</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>45</v>
@@ -13190,7 +13193,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13216,14 +13219,14 @@
         <v>75</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>45</v>
@@ -13272,7 +13275,7 @@
         <v>45</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>43</v>
@@ -13293,10 +13296,10 @@
         <v>45</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>45</v>
@@ -13307,7 +13310,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13333,14 +13336,14 @@
         <v>120</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>45</v>
@@ -13389,7 +13392,7 @@
         <v>45</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>43</v>
@@ -13410,10 +13413,10 @@
         <v>45</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>45</v>
@@ -13424,7 +13427,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13447,19 +13450,19 @@
         <v>57</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>45</v>
@@ -13508,7 +13511,7 @@
         <v>45</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>43</v>
@@ -13529,10 +13532,10 @@
         <v>45</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>45</v>
@@ -13543,7 +13546,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13569,16 +13572,16 @@
         <v>120</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>45</v>
@@ -13627,7 +13630,7 @@
         <v>45</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>43</v>
@@ -13648,10 +13651,10 @@
         <v>45</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>45</v>
@@ -13662,7 +13665,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13688,16 +13691,16 @@
         <v>142</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>45</v>
@@ -13722,13 +13725,13 @@
         <v>45</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>45</v>
@@ -13746,7 +13749,7 @@
         <v>45</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>43</v>
@@ -13767,10 +13770,10 @@
         <v>45</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>45</v>
@@ -13781,7 +13784,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13896,7 +13899,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14013,7 +14016,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14036,19 +14039,19 @@
         <v>57</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>45</v>
@@ -14085,7 +14088,7 @@
         <v>45</v>
       </c>
       <c r="AA101" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="AB101" s="2"/>
       <c r="AC101" t="s" s="2">
@@ -14095,7 +14098,7 @@
         <v>129</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>43</v>
@@ -14116,10 +14119,10 @@
         <v>45</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>45</v>
@@ -14130,10 +14133,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C102" t="s" s="2">
         <v>45</v>
@@ -14155,19 +14158,19 @@
         <v>57</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>45</v>
@@ -14192,13 +14195,13 @@
         <v>45</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>45</v>
@@ -14216,7 +14219,7 @@
         <v>45</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>43</v>
@@ -14237,10 +14240,10 @@
         <v>45</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>45</v>
@@ -14251,7 +14254,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14366,7 +14369,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14392,10 +14395,10 @@
         <v>102</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -14481,10 +14484,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C105" t="s" s="2">
         <v>45</v>
@@ -14506,13 +14509,13 @@
         <v>45</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -14598,7 +14601,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14624,23 +14627,23 @@
         <v>69</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="R106" t="s" s="2">
         <v>45</v>
@@ -14682,7 +14685,7 @@
         <v>45</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>43</v>
@@ -14703,10 +14706,10 @@
         <v>45</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>45</v>
@@ -14717,7 +14720,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14743,13 +14746,13 @@
         <v>120</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
@@ -14799,7 +14802,7 @@
         <v>45</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>43</v>
@@ -14820,10 +14823,10 @@
         <v>45</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>45</v>
@@ -14834,7 +14837,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14860,14 +14863,14 @@
         <v>75</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>45</v>
@@ -14916,7 +14919,7 @@
         <v>45</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>43</v>
@@ -14937,10 +14940,10 @@
         <v>45</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>45</v>
@@ -14951,7 +14954,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14977,14 +14980,14 @@
         <v>120</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>45</v>
@@ -15033,7 +15036,7 @@
         <v>45</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>43</v>
@@ -15054,10 +15057,10 @@
         <v>45</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>45</v>
@@ -15068,7 +15071,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15091,19 +15094,19 @@
         <v>57</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>45</v>
@@ -15152,7 +15155,7 @@
         <v>45</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>43</v>
@@ -15173,10 +15176,10 @@
         <v>45</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>45</v>
@@ -15187,7 +15190,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15213,16 +15216,16 @@
         <v>120</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>45</v>
@@ -15271,7 +15274,7 @@
         <v>45</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>43</v>
@@ -15292,10 +15295,10 @@
         <v>45</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>45</v>
@@ -15306,7 +15309,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15329,16 +15332,16 @@
         <v>45</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -15388,7 +15391,7 @@
         <v>45</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>43</v>
@@ -15406,24 +15409,24 @@
         <v>45</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15446,16 +15449,16 @@
         <v>45</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -15505,7 +15508,7 @@
         <v>45</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>43</v>
@@ -15523,24 +15526,24 @@
         <v>45</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15563,19 +15566,19 @@
         <v>45</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>45</v>
@@ -15624,7 +15627,7 @@
         <v>45</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>43</v>
@@ -15636,7 +15639,7 @@
         <v>45</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>45</v>
@@ -15645,10 +15648,10 @@
         <v>45</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>45</v>
@@ -15659,7 +15662,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15774,7 +15777,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15891,11 +15894,11 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -15920,7 +15923,7 @@
         <v>108</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="M117" t="s" s="2">
         <v>105</v>
@@ -15973,7 +15976,7 @@
         <v>45</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>43</v>
@@ -16008,7 +16011,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16031,13 +16034,13 @@
         <v>45</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -16088,7 +16091,7 @@
         <v>45</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>43</v>
@@ -16097,7 +16100,7 @@
         <v>56</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>45</v>
@@ -16109,10 +16112,10 @@
         <v>45</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>45</v>
@@ -16123,7 +16126,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16146,13 +16149,13 @@
         <v>45</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -16203,17 +16206,17 @@
         <v>45</v>
       </c>
       <c r="AE119" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH119" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="AF119" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>543</v>
-      </c>
       <c r="AI119" t="s" s="2">
         <v>45</v>
       </c>
@@ -16224,10 +16227,10 @@
         <v>45</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>45</v>
@@ -16238,7 +16241,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16264,16 +16267,16 @@
         <v>142</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>45</v>
@@ -16301,10 +16304,10 @@
         <v>79</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>45</v>
@@ -16322,7 +16325,7 @@
         <v>45</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>43</v>
@@ -16340,13 +16343,13 @@
         <v>45</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>45</v>
@@ -16357,7 +16360,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16383,16 +16386,16 @@
         <v>142</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>45</v>
@@ -16417,13 +16420,13 @@
         <v>45</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>45</v>
@@ -16441,7 +16444,7 @@
         <v>45</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>43</v>
@@ -16459,13 +16462,13 @@
         <v>45</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>45</v>
@@ -16476,7 +16479,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16499,17 +16502,17 @@
         <v>45</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>45</v>
@@ -16558,7 +16561,7 @@
         <v>45</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>43</v>
@@ -16582,7 +16585,7 @@
         <v>45</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>45</v>
@@ -16593,7 +16596,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16619,10 +16622,10 @@
         <v>120</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -16673,7 +16676,7 @@
         <v>45</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>43</v>
@@ -16694,10 +16697,10 @@
         <v>45</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>45</v>
@@ -16708,7 +16711,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16731,19 +16734,19 @@
         <v>57</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>45</v>
@@ -16792,7 +16795,7 @@
         <v>45</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>43</v>
@@ -16804,7 +16807,7 @@
         <v>45</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>45</v>
@@ -16813,10 +16816,10 @@
         <v>45</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>45</v>
@@ -16827,7 +16830,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16942,7 +16945,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17059,11 +17062,11 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17088,7 +17091,7 @@
         <v>108</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="M127" t="s" s="2">
         <v>105</v>
@@ -17141,7 +17144,7 @@
         <v>45</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>43</v>
@@ -17176,7 +17179,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17202,23 +17205,23 @@
         <v>75</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P128" s="2"/>
       <c r="Q128" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="R128" t="s" s="2">
         <v>45</v>
@@ -17239,10 +17242,10 @@
         <v>136</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>45</v>
@@ -17260,7 +17263,7 @@
         <v>45</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>43</v>
@@ -17284,7 +17287,7 @@
         <v>99</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>45</v>
@@ -17295,7 +17298,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17318,13 +17321,13 @@
         <v>45</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
@@ -17375,7 +17378,7 @@
         <v>45</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>56</v>
@@ -17399,7 +17402,7 @@
         <v>45</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>45</v>
@@ -17410,7 +17413,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17433,19 +17436,19 @@
         <v>57</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>45</v>
@@ -17494,7 +17497,7 @@
         <v>45</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>43</v>
@@ -17506,7 +17509,7 @@
         <v>45</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>45</v>
@@ -17515,10 +17518,10 @@
         <v>45</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>45</v>
@@ -17529,7 +17532,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17644,7 +17647,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17761,11 +17764,11 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -17790,7 +17793,7 @@
         <v>108</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="M133" t="s" s="2">
         <v>105</v>
@@ -17843,7 +17846,7 @@
         <v>45</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>43</v>
@@ -17878,7 +17881,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17904,14 +17907,14 @@
         <v>142</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>45</v>
@@ -17939,10 +17942,10 @@
         <v>79</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Z134" t="s" s="2">
         <v>45</v>
@@ -17960,7 +17963,7 @@
         <v>45</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>56</v>
@@ -17978,16 +17981,16 @@
         <v>45</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>45</v>
@@ -17995,7 +17998,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -18110,7 +18113,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18227,7 +18230,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18250,19 +18253,19 @@
         <v>57</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>45</v>
@@ -18299,7 +18302,7 @@
         <v>45</v>
       </c>
       <c r="AA137" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AB137" s="2"/>
       <c r="AC137" t="s" s="2">
@@ -18309,7 +18312,7 @@
         <v>129</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>43</v>
@@ -18330,10 +18333,10 @@
         <v>45</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>45</v>
@@ -18344,10 +18347,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C138" t="s" s="2">
         <v>45</v>
@@ -18369,19 +18372,19 @@
         <v>57</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>45</v>
@@ -18409,10 +18412,10 @@
         <v>79</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Z138" t="s" s="2">
         <v>45</v>
@@ -18430,7 +18433,7 @@
         <v>45</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>43</v>
@@ -18451,10 +18454,10 @@
         <v>45</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>45</v>
@@ -18465,7 +18468,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -18580,7 +18583,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18697,7 +18700,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18723,23 +18726,23 @@
         <v>69</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P141" s="2"/>
       <c r="Q141" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="R141" t="s" s="2">
         <v>45</v>
@@ -18781,7 +18784,7 @@
         <v>45</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>43</v>
@@ -18802,10 +18805,10 @@
         <v>45</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>45</v>
@@ -18816,7 +18819,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18842,13 +18845,13 @@
         <v>120</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" t="s" s="2">
@@ -18898,7 +18901,7 @@
         <v>45</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>43</v>
@@ -18919,10 +18922,10 @@
         <v>45</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>45</v>
@@ -18933,7 +18936,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18959,14 +18962,14 @@
         <v>75</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>45</v>
@@ -19015,7 +19018,7 @@
         <v>45</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>43</v>
@@ -19036,10 +19039,10 @@
         <v>45</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN143" t="s" s="2">
         <v>45</v>
@@ -19050,7 +19053,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -19076,14 +19079,14 @@
         <v>120</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>45</v>
@@ -19132,7 +19135,7 @@
         <v>45</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>43</v>
@@ -19153,10 +19156,10 @@
         <v>45</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>45</v>
@@ -19167,7 +19170,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19190,19 +19193,19 @@
         <v>57</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>45</v>
@@ -19251,7 +19254,7 @@
         <v>45</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>43</v>
@@ -19272,10 +19275,10 @@
         <v>45</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN145" t="s" s="2">
         <v>45</v>
@@ -19286,10 +19289,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C146" t="s" s="2">
         <v>45</v>
@@ -19311,19 +19314,19 @@
         <v>57</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>45</v>
@@ -19372,7 +19375,7 @@
         <v>45</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>43</v>
@@ -19393,10 +19396,10 @@
         <v>45</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>45</v>
@@ -19407,7 +19410,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19522,7 +19525,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19548,10 +19551,10 @@
         <v>102</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -19637,10 +19640,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C149" t="s" s="2">
         <v>45</v>
@@ -19662,13 +19665,13 @@
         <v>45</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
@@ -19754,7 +19757,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19780,23 +19783,23 @@
         <v>69</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P150" s="2"/>
       <c r="Q150" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="R150" t="s" s="2">
         <v>45</v>
@@ -19838,7 +19841,7 @@
         <v>45</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>43</v>
@@ -19859,10 +19862,10 @@
         <v>45</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>45</v>
@@ -19873,7 +19876,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -19899,13 +19902,13 @@
         <v>120</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
@@ -19955,7 +19958,7 @@
         <v>45</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>43</v>
@@ -19976,10 +19979,10 @@
         <v>45</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>45</v>
@@ -19990,7 +19993,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20016,14 +20019,14 @@
         <v>75</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>45</v>
@@ -20072,7 +20075,7 @@
         <v>45</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>43</v>
@@ -20093,10 +20096,10 @@
         <v>45</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>45</v>
@@ -20107,7 +20110,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20133,14 +20136,14 @@
         <v>120</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>45</v>
@@ -20189,7 +20192,7 @@
         <v>45</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>43</v>
@@ -20210,10 +20213,10 @@
         <v>45</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>45</v>
@@ -20224,7 +20227,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20247,19 +20250,19 @@
         <v>57</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>45</v>
@@ -20308,7 +20311,7 @@
         <v>45</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>43</v>
@@ -20329,10 +20332,10 @@
         <v>45</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>45</v>
@@ -20343,7 +20346,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20369,16 +20372,16 @@
         <v>120</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>45</v>
@@ -20427,7 +20430,7 @@
         <v>45</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>43</v>
@@ -20448,10 +20451,10 @@
         <v>45</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN155" t="s" s="2">
         <v>45</v>
@@ -20462,7 +20465,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20485,19 +20488,19 @@
         <v>57</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>45</v>
@@ -20534,17 +20537,17 @@
         <v>45</v>
       </c>
       <c r="AA156" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AB156" s="2"/>
       <c r="AC156" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD156" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>43</v>
@@ -20562,27 +20565,27 @@
         <v>45</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN156" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO156" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C157" t="s" s="2">
         <v>45</v>
@@ -20604,19 +20607,19 @@
         <v>57</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>45</v>
@@ -20644,10 +20647,10 @@
         <v>136</v>
       </c>
       <c r="X157" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Y157" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Z157" t="s" s="2">
         <v>45</v>
@@ -20665,7 +20668,7 @@
         <v>45</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>43</v>
@@ -20683,24 +20686,24 @@
         <v>45</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN157" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO157" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20815,7 +20818,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20932,7 +20935,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20955,19 +20958,19 @@
         <v>57</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>45</v>
@@ -21016,7 +21019,7 @@
         <v>45</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>43</v>
@@ -21037,10 +21040,10 @@
         <v>45</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>45</v>
@@ -21051,7 +21054,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -21077,22 +21080,22 @@
         <v>75</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P161" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q161" t="s" s="2">
         <v>45</v>
@@ -21116,10 +21119,10 @@
         <v>136</v>
       </c>
       <c r="X161" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Y161" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z161" t="s" s="2">
         <v>45</v>
@@ -21137,7 +21140,7 @@
         <v>45</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>43</v>
@@ -21158,10 +21161,10 @@
         <v>45</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>45</v>
@@ -21172,7 +21175,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21198,14 +21201,14 @@
         <v>120</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M162" s="2"/>
       <c r="N162" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>45</v>
@@ -21254,7 +21257,7 @@
         <v>45</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>43</v>
@@ -21275,10 +21278,10 @@
         <v>45</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>45</v>
@@ -21289,7 +21292,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21315,21 +21318,21 @@
         <v>69</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M163" s="2"/>
       <c r="N163" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P163" s="2"/>
       <c r="Q163" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="R163" t="s" s="2">
         <v>45</v>
@@ -21371,7 +21374,7 @@
         <v>45</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>43</v>
@@ -21380,7 +21383,7 @@
         <v>56</v>
       </c>
       <c r="AH163" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AI163" t="s" s="2">
         <v>45</v>
@@ -21392,10 +21395,10 @@
         <v>45</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>45</v>
@@ -21406,7 +21409,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21432,16 +21435,16 @@
         <v>75</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>45</v>
@@ -21469,10 +21472,10 @@
         <v>136</v>
       </c>
       <c r="X164" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Z164" t="s" s="2">
         <v>45</v>
@@ -21490,7 +21493,7 @@
         <v>45</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>43</v>
@@ -21511,10 +21514,10 @@
         <v>45</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>45</v>
@@ -21525,7 +21528,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21551,16 +21554,16 @@
         <v>142</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>45</v>
@@ -21588,29 +21591,29 @@
         <v>79</v>
       </c>
       <c r="X165" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="Y165" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="Z165" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA165" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB165" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC165" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD165" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE165" t="s" s="2">
         <v>642</v>
       </c>
-      <c r="Y165" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="Z165" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA165" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB165" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC165" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD165" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE165" t="s" s="2">
-        <v>639</v>
-      </c>
       <c r="AF165" t="s" s="2">
         <v>43</v>
       </c>
@@ -21618,7 +21621,7 @@
         <v>56</v>
       </c>
       <c r="AH165" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AI165" t="s" s="2">
         <v>45</v>
@@ -21633,7 +21636,7 @@
         <v>99</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AN165" t="s" s="2">
         <v>45</v>
@@ -21644,7 +21647,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21759,7 +21762,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21876,7 +21879,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21899,19 +21902,19 @@
         <v>57</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>45</v>
@@ -21960,7 +21963,7 @@
         <v>45</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>43</v>
@@ -21981,10 +21984,10 @@
         <v>45</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>45</v>
@@ -21995,7 +21998,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -22110,7 +22113,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22227,7 +22230,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22253,16 +22256,16 @@
         <v>69</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>45</v>
@@ -22311,7 +22314,7 @@
         <v>45</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>43</v>
@@ -22332,10 +22335,10 @@
         <v>45</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>45</v>
@@ -22346,7 +22349,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22372,13 +22375,13 @@
         <v>120</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" t="s" s="2">
@@ -22428,7 +22431,7 @@
         <v>45</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>43</v>
@@ -22449,10 +22452,10 @@
         <v>45</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM172" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN172" t="s" s="2">
         <v>45</v>
@@ -22463,7 +22466,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22489,14 +22492,14 @@
         <v>75</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>45</v>
@@ -22545,7 +22548,7 @@
         <v>45</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>43</v>
@@ -22566,10 +22569,10 @@
         <v>45</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM173" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN173" t="s" s="2">
         <v>45</v>
@@ -22580,7 +22583,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22606,14 +22609,14 @@
         <v>120</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>45</v>
@@ -22662,7 +22665,7 @@
         <v>45</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>43</v>
@@ -22683,10 +22686,10 @@
         <v>45</v>
       </c>
       <c r="AL174" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM174" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN174" t="s" s="2">
         <v>45</v>
@@ -22697,7 +22700,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22720,19 +22723,19 @@
         <v>57</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>45</v>
@@ -22781,7 +22784,7 @@
         <v>45</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>43</v>
@@ -22802,10 +22805,10 @@
         <v>45</v>
       </c>
       <c r="AL175" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM175" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN175" t="s" s="2">
         <v>45</v>
@@ -22816,7 +22819,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -22842,16 +22845,16 @@
         <v>120</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>45</v>
@@ -22900,7 +22903,7 @@
         <v>45</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>43</v>
@@ -22921,10 +22924,10 @@
         <v>45</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN176" t="s" s="2">
         <v>45</v>
@@ -22935,11 +22938,11 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
@@ -22961,16 +22964,16 @@
         <v>142</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>45</v>
@@ -22998,29 +23001,29 @@
         <v>79</v>
       </c>
       <c r="X177" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="Y177" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="Z177" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA177" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB177" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC177" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD177" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE177" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="Y177" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="Z177" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA177" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB177" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC177" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD177" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE177" t="s" s="2">
-        <v>655</v>
-      </c>
       <c r="AF177" t="s" s="2">
         <v>43</v>
       </c>
@@ -23037,24 +23040,24 @@
         <v>45</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO177" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23080,16 +23083,16 @@
         <v>45</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>45</v>
@@ -23138,7 +23141,7 @@
         <v>45</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>43</v>
@@ -23159,10 +23162,10 @@
         <v>45</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>45</v>
